--- a/finalized_reorganized_enhanced.xlsx
+++ b/finalized_reorganized_enhanced.xlsx
@@ -1164,7 +1164,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,7 +1176,7 @@
     <col width="50" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="75" customWidth="1" min="5" max="5"/>
+    <col width="80" customWidth="1" min="5" max="5"/>
     <col width="45" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -1223,8 +1223,10 @@
           <t>CRITICAL ISSUES SPRINT</t>
         </is>
       </c>
-      <c r="C2" s="9" t="n">
-        <v>53</v>
+      <c r="C2" s="9" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="D2" s="9" t="inlineStr">
         <is>
@@ -1245,7 +1247,7 @@
       <c r="D3" s="9" t="inlineStr"/>
       <c r="E3" s="25" t="inlineStr">
         <is>
-          <t>0.1- Critical issues from WP1: Security &amp; Infrastructure</t>
+          <t>0.1- Critical issues from WP1: Security &amp; Infrastructure (12 issues, 18.0 days)</t>
         </is>
       </c>
       <c r="F3" s="9" t="inlineStr">
@@ -1261,7 +1263,7 @@
       <c r="D4" s="9" t="inlineStr"/>
       <c r="E4" s="25" t="inlineStr">
         <is>
-          <t>0.2- Critical issues from WP2: Framework &amp; Performance</t>
+          <t>0.2- Critical issues from WP2: Framework &amp; Performance (4 issues, 6.0 days)</t>
         </is>
       </c>
       <c r="F4" s="9" t="inlineStr">
@@ -1277,7 +1279,7 @@
       <c r="D5" s="9" t="inlineStr"/>
       <c r="E5" s="25" t="inlineStr">
         <is>
-          <t>0.3- Critical issues from WP3: Authentication</t>
+          <t>0.3- Critical issues from WP3: Authentication (1 issue, 1.5 days)</t>
         </is>
       </c>
       <c r="F5" s="9" t="inlineStr">
@@ -1293,7 +1295,7 @@
       <c r="D6" s="9" t="inlineStr"/>
       <c r="E6" s="25" t="inlineStr">
         <is>
-          <t>0.4- Critical issues from WP4: Performance Optimization</t>
+          <t>0.4- Critical issues from WP4: Performance Optimization (3 issues, 4.5 days)</t>
         </is>
       </c>
       <c r="F6" s="9" t="inlineStr">
@@ -1309,7 +1311,7 @@
       <c r="D7" s="9" t="inlineStr"/>
       <c r="E7" s="25" t="inlineStr">
         <is>
-          <t>0.5- Critical issues from WP5: UI/UX &amp; Mobile</t>
+          <t>0.5- Critical issues from WP5: UI/UX &amp; Mobile (9 issues, 11.0 days)</t>
         </is>
       </c>
       <c r="F7" s="9" t="inlineStr">
@@ -1325,7 +1327,7 @@
       <c r="D8" s="9" t="inlineStr"/>
       <c r="E8" s="25" t="inlineStr">
         <is>
-          <t>0.6- Critical issues from WP6: Bugs &amp; Code Quality</t>
+          <t>0.6- Critical issues from WP6: Bugs &amp; Code Quality (15 issues, 18.5 days)</t>
         </is>
       </c>
       <c r="F8" s="9" t="inlineStr">
@@ -1341,7 +1343,7 @@
       <c r="D9" s="9" t="inlineStr"/>
       <c r="E9" s="25" t="inlineStr">
         <is>
-          <t>0.7- Critical issues from WP7: AWS &amp; Documentation</t>
+          <t>0.7- Critical issues from WP7: AWS &amp; Documentation (9 issues, 5.0 days)</t>
         </is>
       </c>
       <c r="F9" s="9" t="inlineStr">
@@ -1361,8 +1363,10 @@
           <t>Critical Security &amp; Infrastructure (non-critical)</t>
         </is>
       </c>
-      <c r="C10" s="9" t="n">
-        <v>13</v>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="D10" s="9" t="inlineStr">
         <is>
@@ -1383,38 +1387,28 @@
       <c r="D11" s="9" t="inlineStr"/>
       <c r="E11" s="25" t="inlineStr">
         <is>
-          <t>1.1- Security hardening (remaining HIGH/MEDIUM issues)</t>
+          <t>1.1- Hardcoded MongoDB Credentials</t>
         </is>
       </c>
       <c r="F11" s="9" t="inlineStr">
         <is>
-          <t>Phase 0 complete</t>
+          <t>1.1 or Phase 0 complete</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B12" s="24" t="inlineStr">
-        <is>
-          <t>Framework Upgrades &amp; Core Performance (non-critical)</t>
-        </is>
-      </c>
-      <c r="C12" s="9" t="n">
-        <v>35</v>
-      </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>42.0</t>
-        </is>
-      </c>
-      <c r="E12" s="9" t="inlineStr"/>
+      <c r="A12" s="9" t="inlineStr"/>
+      <c r="B12" s="9" t="inlineStr"/>
+      <c r="C12" s="9" t="inlineStr"/>
+      <c r="D12" s="9" t="inlineStr"/>
+      <c r="E12" s="25" t="inlineStr">
+        <is>
+          <t>1.2- React Query Cache Not Parameterized by Trip Inputs</t>
+        </is>
+      </c>
       <c r="F12" s="9" t="inlineStr">
         <is>
-          <t>Phase 1 complete</t>
+          <t>1.1 or Phase 0 complete</t>
         </is>
       </c>
     </row>
@@ -1425,38 +1419,28 @@
       <c r="D13" s="9" t="inlineStr"/>
       <c r="E13" s="25" t="inlineStr">
         <is>
-          <t>2.1- Framework upgrades and core optimizations</t>
+          <t>1.3- Permissive CORS Configuration</t>
         </is>
       </c>
       <c r="F13" s="9" t="inlineStr">
         <is>
-          <t>Phase 1 complete</t>
+          <t>1.1 or Phase 0 complete</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B14" s="24" t="inlineStr">
-        <is>
-          <t>Authentication &amp; Token Management (non-critical)</t>
-        </is>
-      </c>
-      <c r="C14" s="9" t="n">
-        <v>29</v>
-      </c>
-      <c r="D14" s="9" t="inlineStr">
-        <is>
-          <t>31.5</t>
-        </is>
-      </c>
-      <c r="E14" s="9" t="inlineStr"/>
+      <c r="A14" s="9" t="inlineStr"/>
+      <c r="B14" s="9" t="inlineStr"/>
+      <c r="C14" s="9" t="inlineStr"/>
+      <c r="D14" s="9" t="inlineStr"/>
+      <c r="E14" s="25" t="inlineStr">
+        <is>
+          <t>1.4- Ineffective Rate Limiting</t>
+        </is>
+      </c>
       <c r="F14" s="9" t="inlineStr">
         <is>
-          <t>Phase 2 complete</t>
+          <t>1.1 or Phase 0 complete</t>
         </is>
       </c>
     </row>
@@ -1467,80 +1451,72 @@
       <c r="D15" s="9" t="inlineStr"/>
       <c r="E15" s="25" t="inlineStr">
         <is>
-          <t>3.1- Token management and authentication improvements</t>
+          <t>1.5- Missing Database Connection Pooling</t>
         </is>
       </c>
       <c r="F15" s="9" t="inlineStr">
         <is>
-          <t>Phase 2 complete</t>
+          <t>1.1 or Phase 0 complete</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="23" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B16" s="24" t="inlineStr">
-        <is>
-          <t>Performance Optimization (non-critical)</t>
-        </is>
-      </c>
-      <c r="C16" s="9" t="n">
-        <v>51</v>
-      </c>
-      <c r="D16" s="9" t="inlineStr">
-        <is>
-          <t>70.0</t>
-        </is>
-      </c>
-      <c r="E16" s="9" t="inlineStr"/>
+      <c r="A16" s="9" t="inlineStr"/>
+      <c r="B16" s="9" t="inlineStr"/>
+      <c r="C16" s="9" t="inlineStr"/>
+      <c r="D16" s="9" t="inlineStr"/>
+      <c r="E16" s="25" t="inlineStr">
+        <is>
+          <t>1.6- Security risk: port 22 (SSH) is open to the world on most EC2 instances.</t>
+        </is>
+      </c>
       <c r="F16" s="9" t="inlineStr">
         <is>
-          <t>Phase 2 complete (can run parallel with Phase 3)</t>
+          <t>1.1 or Phase 0 complete</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="inlineStr"/>
-      <c r="B17" s="9" t="inlineStr"/>
-      <c r="C17" s="9" t="inlineStr"/>
-      <c r="D17" s="9" t="inlineStr"/>
-      <c r="E17" s="25" t="inlineStr">
-        <is>
-          <t>4.1- Performance tuning and optimization</t>
-        </is>
-      </c>
+      <c r="A17" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B17" s="24" t="inlineStr">
+        <is>
+          <t>Framework Upgrades &amp; Core Performance (non-critical)</t>
+        </is>
+      </c>
+      <c r="C17" s="9" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="E17" s="9" t="inlineStr"/>
       <c r="F17" s="9" t="inlineStr">
         <is>
-          <t>Phase 2 complete</t>
+          <t>Phase 1 complete</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="23" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B18" s="24" t="inlineStr">
-        <is>
-          <t>UI/UX &amp; Mobile (non-critical)</t>
-        </is>
-      </c>
-      <c r="C18" s="9" t="n">
-        <v>189</v>
-      </c>
-      <c r="D18" s="9" t="inlineStr">
-        <is>
-          <t>192.0</t>
-        </is>
-      </c>
-      <c r="E18" s="9" t="inlineStr"/>
+      <c r="A18" s="9" t="inlineStr"/>
+      <c r="B18" s="9" t="inlineStr"/>
+      <c r="C18" s="9" t="inlineStr"/>
+      <c r="D18" s="9" t="inlineStr"/>
+      <c r="E18" s="25" t="inlineStr">
+        <is>
+          <t>2.1- Outdated Django Framework</t>
+        </is>
+      </c>
       <c r="F18" s="9" t="inlineStr">
         <is>
-          <t>Phase 3 complete</t>
+          <t>Phase 1 complete</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1527,12 @@
       <c r="D19" s="9" t="inlineStr"/>
       <c r="E19" s="25" t="inlineStr">
         <is>
-          <t>5.2.a.1- 5.2.a - Part 1 of 4</t>
+          <t>2.2- No Database Query Optimization</t>
         </is>
       </c>
       <c r="F19" s="9" t="inlineStr">
         <is>
-          <t>Phase 5</t>
+          <t>Phase 1 complete</t>
         </is>
       </c>
     </row>
@@ -1567,12 +1543,12 @@
       <c r="D20" s="9" t="inlineStr"/>
       <c r="E20" s="25" t="inlineStr">
         <is>
-          <t>5.2.a.2- 5.2.a - Part 2 of 4</t>
+          <t>2.3- Inefficient Driver Pagination</t>
         </is>
       </c>
       <c r="F20" s="9" t="inlineStr">
         <is>
-          <t>Phase 5</t>
+          <t>Phase 1 complete</t>
         </is>
       </c>
     </row>
@@ -1583,28 +1559,40 @@
       <c r="D21" s="9" t="inlineStr"/>
       <c r="E21" s="25" t="inlineStr">
         <is>
-          <t>5.2.a.3- 5.2.a - Part 3 of 4</t>
+          <t>2.4- Massive Aggregation Without Pagination</t>
         </is>
       </c>
       <c r="F21" s="9" t="inlineStr">
         <is>
-          <t>Phase 5</t>
+          <t>Phase 1 complete</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="inlineStr"/>
-      <c r="B22" s="9" t="inlineStr"/>
-      <c r="C22" s="9" t="inlineStr"/>
-      <c r="D22" s="9" t="inlineStr"/>
-      <c r="E22" s="25" t="inlineStr">
-        <is>
-          <t>5.2.a.4- 5.2.a - Part 4 of 4</t>
-        </is>
-      </c>
+      <c r="A22" s="23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B22" s="24" t="inlineStr">
+        <is>
+          <t>Authentication &amp; Token Management (non-critical)</t>
+        </is>
+      </c>
+      <c r="C22" s="9" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="inlineStr">
+        <is>
+          <t>31.5</t>
+        </is>
+      </c>
+      <c r="E22" s="9" t="inlineStr"/>
       <c r="F22" s="9" t="inlineStr">
         <is>
-          <t>Phase 5</t>
+          <t>Phase 2 complete</t>
         </is>
       </c>
     </row>
@@ -1615,12 +1603,12 @@
       <c r="D23" s="9" t="inlineStr"/>
       <c r="E23" s="25" t="inlineStr">
         <is>
-          <t>5.2.b.1- 5.2.b - Part 1 of 3</t>
+          <t>3.1- Excessive Token Lifetime</t>
         </is>
       </c>
       <c r="F23" s="9" t="inlineStr">
         <is>
-          <t>Phase 5</t>
+          <t>Phase 2 complete</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1619,12 @@
       <c r="D24" s="9" t="inlineStr"/>
       <c r="E24" s="25" t="inlineStr">
         <is>
-          <t>5.2.b.2- 5.2.b - Part 2 of 3</t>
+          <t>3.2- Authentication Tokens in localStorage</t>
         </is>
       </c>
       <c r="F24" s="9" t="inlineStr">
         <is>
-          <t>Phase 5</t>
+          <t>Phase 2 complete</t>
         </is>
       </c>
     </row>
@@ -1647,54 +1635,56 @@
       <c r="D25" s="9" t="inlineStr"/>
       <c r="E25" s="25" t="inlineStr">
         <is>
-          <t>5.2.b.3- 5.2.b - Part 3 of 3</t>
+          <t>3.3- No CSRF Protection Visible</t>
         </is>
       </c>
       <c r="F25" s="9" t="inlineStr">
         <is>
-          <t>Phase 5</t>
+          <t>Phase 2 complete</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="23" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B26" s="24" t="inlineStr">
-        <is>
-          <t>Bugs &amp; Code Quality (non-critical)</t>
-        </is>
-      </c>
-      <c r="C26" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="D26" s="9" t="inlineStr">
-        <is>
-          <t>134.0</t>
-        </is>
-      </c>
-      <c r="E26" s="9" t="inlineStr"/>
+      <c r="A26" s="9" t="inlineStr"/>
+      <c r="B26" s="9" t="inlineStr"/>
+      <c r="C26" s="9" t="inlineStr"/>
+      <c r="D26" s="9" t="inlineStr"/>
+      <c r="E26" s="25" t="inlineStr">
+        <is>
+          <t>3.4- No Multi-Factor Authentication</t>
+        </is>
+      </c>
       <c r="F26" s="9" t="inlineStr">
         <is>
-          <t>Phase 2 complete (can run parallel with Phases 3-5)</t>
+          <t>Phase 2 complete</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="9" t="inlineStr"/>
-      <c r="B27" s="9" t="inlineStr"/>
-      <c r="C27" s="9" t="inlineStr"/>
-      <c r="D27" s="9" t="inlineStr"/>
-      <c r="E27" s="25" t="inlineStr">
-        <is>
-          <t>6.2.a.1- 6.2.a - Part 1 of 3</t>
-        </is>
-      </c>
+      <c r="A27" s="23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B27" s="24" t="inlineStr">
+        <is>
+          <t>Performance Optimization (non-critical)</t>
+        </is>
+      </c>
+      <c r="C27" s="9" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="E27" s="9" t="inlineStr"/>
       <c r="F27" s="9" t="inlineStr">
         <is>
-          <t>Phase 6</t>
+          <t>Phase 2 complete (parallel with Phase 3)</t>
         </is>
       </c>
     </row>
@@ -1705,12 +1695,12 @@
       <c r="D28" s="9" t="inlineStr"/>
       <c r="E28" s="25" t="inlineStr">
         <is>
-          <t>6.2.a.2- 6.2.a - Part 2 of 3</t>
+          <t>4.1- Excel Export Loads All Data Into Memory</t>
         </is>
       </c>
       <c r="F28" s="9" t="inlineStr">
         <is>
-          <t>Phase 6</t>
+          <t>Phase 2 complete</t>
         </is>
       </c>
     </row>
@@ -1721,38 +1711,28 @@
       <c r="D29" s="9" t="inlineStr"/>
       <c r="E29" s="25" t="inlineStr">
         <is>
-          <t>6.2.a.3- 6.2.a - Part 3 of 3</t>
+          <t>4.2- Unoptimized Trip Export Pipeline</t>
         </is>
       </c>
       <c r="F29" s="9" t="inlineStr">
         <is>
-          <t>Phase 6</t>
+          <t>Phase 2 complete</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="23" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B30" s="24" t="inlineStr">
-        <is>
-          <t>Finalizing AWS &amp; Documentation (non-critical)</t>
-        </is>
-      </c>
-      <c r="C30" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="D30" s="9" t="inlineStr">
-        <is>
-          <t>12.5</t>
-        </is>
-      </c>
-      <c r="E30" s="9" t="inlineStr"/>
+      <c r="A30" s="9" t="inlineStr"/>
+      <c r="B30" s="9" t="inlineStr"/>
+      <c r="C30" s="9" t="inlineStr"/>
+      <c r="D30" s="9" t="inlineStr"/>
+      <c r="E30" s="25" t="inlineStr">
+        <is>
+          <t>4.3- No Response Compression</t>
+        </is>
+      </c>
       <c r="F30" s="9" t="inlineStr">
         <is>
-          <t>All other phases complete</t>
+          <t>Phase 2 complete</t>
         </is>
       </c>
     </row>
@@ -1763,12 +1743,448 @@
       <c r="D31" s="9" t="inlineStr"/>
       <c r="E31" s="25" t="inlineStr">
         <is>
-          <t>7.1- AWS optimization and documentation</t>
+          <t>4.4- Synchronous File Upload in Request</t>
         </is>
       </c>
       <c r="F31" s="9" t="inlineStr">
         <is>
+          <t>Phase 2 complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="inlineStr"/>
+      <c r="B32" s="9" t="inlineStr"/>
+      <c r="C32" s="9" t="inlineStr"/>
+      <c r="D32" s="9" t="inlineStr"/>
+      <c r="E32" s="25" t="inlineStr">
+        <is>
+          <t>4.5.a- Insufficient Logging and Monitoring</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>Phase 2 complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="inlineStr"/>
+      <c r="B33" s="9" t="inlineStr"/>
+      <c r="C33" s="9" t="inlineStr"/>
+      <c r="D33" s="9" t="inlineStr"/>
+      <c r="E33" s="25" t="inlineStr">
+        <is>
+          <t>4.5.b- Missing Performance Metrics</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>Phase 2 complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="inlineStr"/>
+      <c r="B34" s="9" t="inlineStr"/>
+      <c r="C34" s="9" t="inlineStr"/>
+      <c r="D34" s="9" t="inlineStr"/>
+      <c r="E34" s="25" t="inlineStr">
+        <is>
+          <t>4.5.c- Missing Performance Monitoring No Production Performance Tracking</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>Phase 2 complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B35" s="24" t="inlineStr">
+        <is>
+          <t>UI/UX &amp; Mobile (non-critical)</t>
+        </is>
+      </c>
+      <c r="C35" s="9" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="E35" s="9" t="inlineStr"/>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>Phase 3 complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="inlineStr"/>
+      <c r="B36" s="9" t="inlineStr"/>
+      <c r="C36" s="9" t="inlineStr"/>
+      <c r="D36" s="9" t="inlineStr"/>
+      <c r="E36" s="25" t="inlineStr">
+        <is>
+          <t>5.1.a- Accessibility &amp; semantic structure (26.0 days)</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>Phase 3 complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="inlineStr"/>
+      <c r="B37" s="9" t="inlineStr"/>
+      <c r="C37" s="9" t="inlineStr"/>
+      <c r="D37" s="9" t="inlineStr"/>
+      <c r="E37" s="25" t="inlineStr">
+        <is>
+          <t>5.1.b- Visual design &amp; theming (26.0 days)</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>5.1.a in progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="inlineStr"/>
+      <c r="B38" s="9" t="inlineStr"/>
+      <c r="C38" s="9" t="inlineStr"/>
+      <c r="D38" s="9" t="inlineStr"/>
+      <c r="E38" s="25" t="inlineStr">
+        <is>
+          <t>5.1.c- Navigation &amp; user flows (14.5 days)</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>5.1.a in progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="inlineStr"/>
+      <c r="B39" s="9" t="inlineStr"/>
+      <c r="C39" s="9" t="inlineStr"/>
+      <c r="D39" s="9" t="inlineStr"/>
+      <c r="E39" s="25" t="inlineStr">
+        <is>
+          <t>5.2.a.1- Mobile visual &amp; theming - Part 1 of 4 (23.0 days)</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>Phase 3 complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="inlineStr"/>
+      <c r="B40" s="9" t="inlineStr"/>
+      <c r="C40" s="9" t="inlineStr"/>
+      <c r="D40" s="9" t="inlineStr"/>
+      <c r="E40" s="25" t="inlineStr">
+        <is>
+          <t>5.2.a.2- Mobile visual &amp; theming - Part 2 of 4 (20.5 days)</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>5.2.a.1 in progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="inlineStr"/>
+      <c r="B41" s="9" t="inlineStr"/>
+      <c r="C41" s="9" t="inlineStr"/>
+      <c r="D41" s="9" t="inlineStr"/>
+      <c r="E41" s="25" t="inlineStr">
+        <is>
+          <t>5.2.a.3- Mobile visual &amp; theming - Part 3 of 4 (20.0 days)</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>5.2.a.1 in progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="inlineStr"/>
+      <c r="B42" s="9" t="inlineStr"/>
+      <c r="C42" s="9" t="inlineStr"/>
+      <c r="D42" s="9" t="inlineStr"/>
+      <c r="E42" s="25" t="inlineStr">
+        <is>
+          <t>5.2.a.4- Mobile visual &amp; theming - Part 4 of 4 (2.0 days)</t>
+        </is>
+      </c>
+      <c r="F42" s="9" t="inlineStr">
+        <is>
+          <t>5.2.a.1 in progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="inlineStr"/>
+      <c r="B43" s="9" t="inlineStr"/>
+      <c r="C43" s="9" t="inlineStr"/>
+      <c r="D43" s="9" t="inlineStr"/>
+      <c r="E43" s="25" t="inlineStr">
+        <is>
+          <t>5.2.b.1- Mobile layout &amp; responsiveness - Part 1 of 3 (19.5 days)</t>
+        </is>
+      </c>
+      <c r="F43" s="9" t="inlineStr">
+        <is>
+          <t>5.2.a in progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="inlineStr"/>
+      <c r="B44" s="9" t="inlineStr"/>
+      <c r="C44" s="9" t="inlineStr"/>
+      <c r="D44" s="9" t="inlineStr"/>
+      <c r="E44" s="25" t="inlineStr">
+        <is>
+          <t>5.2.b.2- Mobile layout &amp; responsiveness - Part 2 of 3 (20.0 days)</t>
+        </is>
+      </c>
+      <c r="F44" s="9" t="inlineStr">
+        <is>
+          <t>5.2.a in progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="inlineStr"/>
+      <c r="B45" s="9" t="inlineStr"/>
+      <c r="C45" s="9" t="inlineStr"/>
+      <c r="D45" s="9" t="inlineStr"/>
+      <c r="E45" s="25" t="inlineStr">
+        <is>
+          <t>5.2.b.3- Mobile layout &amp; responsiveness - Part 3 of 3 (9.5 days)</t>
+        </is>
+      </c>
+      <c r="F45" s="9" t="inlineStr">
+        <is>
+          <t>5.2.a in progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="inlineStr"/>
+      <c r="B46" s="9" t="inlineStr"/>
+      <c r="C46" s="9" t="inlineStr"/>
+      <c r="D46" s="9" t="inlineStr"/>
+      <c r="E46" s="25" t="inlineStr">
+        <is>
+          <t>5.3- Responsive design fixes (25.0 days)</t>
+        </is>
+      </c>
+      <c r="F46" s="9" t="inlineStr">
+        <is>
+          <t>Phase 3 complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="23" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B47" s="24" t="inlineStr">
+        <is>
+          <t>Bugs &amp; Code Quality (non-critical)</t>
+        </is>
+      </c>
+      <c r="C47" s="9" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="E47" s="9" t="inlineStr"/>
+      <c r="F47" s="9" t="inlineStr">
+        <is>
+          <t>Phase 2 complete (parallel with Phases 3-5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="inlineStr"/>
+      <c r="B48" s="9" t="inlineStr"/>
+      <c r="C48" s="9" t="inlineStr"/>
+      <c r="D48" s="9" t="inlineStr"/>
+      <c r="E48" s="25" t="inlineStr">
+        <is>
+          <t>6.1- Code quality review and refactoring (13.0 days)</t>
+        </is>
+      </c>
+      <c r="F48" s="9" t="inlineStr">
+        <is>
+          <t>Phase 2 complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="inlineStr"/>
+      <c r="B49" s="9" t="inlineStr"/>
+      <c r="C49" s="9" t="inlineStr"/>
+      <c r="D49" s="9" t="inlineStr"/>
+      <c r="E49" s="25" t="inlineStr">
+        <is>
+          <t>6.2.a.1- API &amp; integration bugs - Part 1 of 3 (39.0 days)</t>
+        </is>
+      </c>
+      <c r="F49" s="9" t="inlineStr">
+        <is>
+          <t>6.1 in progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="inlineStr"/>
+      <c r="B50" s="9" t="inlineStr"/>
+      <c r="C50" s="9" t="inlineStr"/>
+      <c r="D50" s="9" t="inlineStr"/>
+      <c r="E50" s="25" t="inlineStr">
+        <is>
+          <t>6.2.a.2- API &amp; integration bugs - Part 2 of 3 (30.0 days)</t>
+        </is>
+      </c>
+      <c r="F50" s="9" t="inlineStr">
+        <is>
+          <t>6.1 in progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="inlineStr"/>
+      <c r="B51" s="9" t="inlineStr"/>
+      <c r="C51" s="9" t="inlineStr"/>
+      <c r="D51" s="9" t="inlineStr"/>
+      <c r="E51" s="25" t="inlineStr">
+        <is>
+          <t>6.2.a.3- API &amp; integration bugs - Part 3 of 3 (25.5 days)</t>
+        </is>
+      </c>
+      <c r="F51" s="9" t="inlineStr">
+        <is>
+          <t>6.1 in progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="inlineStr"/>
+      <c r="B52" s="9" t="inlineStr"/>
+      <c r="C52" s="9" t="inlineStr"/>
+      <c r="D52" s="9" t="inlineStr"/>
+      <c r="E52" s="25" t="inlineStr">
+        <is>
+          <t>6.2.b- Security &amp; compliance bugs (34.0 days)</t>
+        </is>
+      </c>
+      <c r="F52" s="9" t="inlineStr">
+        <is>
+          <t>6.1 in progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="inlineStr"/>
+      <c r="B53" s="9" t="inlineStr"/>
+      <c r="C53" s="9" t="inlineStr"/>
+      <c r="D53" s="9" t="inlineStr"/>
+      <c r="E53" s="25" t="inlineStr">
+        <is>
+          <t>6.2.c- State &amp; performance bugs (10.0 days)</t>
+        </is>
+      </c>
+      <c r="F53" s="9" t="inlineStr">
+        <is>
+          <t>6.1 in progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="inlineStr"/>
+      <c r="B54" s="9" t="inlineStr"/>
+      <c r="C54" s="9" t="inlineStr"/>
+      <c r="D54" s="9" t="inlineStr"/>
+      <c r="E54" s="25" t="inlineStr">
+        <is>
+          <t>6.3- Final system testing and validation (2.0 days)</t>
+        </is>
+      </c>
+      <c r="F54" s="9" t="inlineStr">
+        <is>
+          <t>All Phases 1-5 complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="23" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B55" s="24" t="inlineStr">
+        <is>
+          <t>Finalizing AWS &amp; Documentation (non-critical)</t>
+        </is>
+      </c>
+      <c r="C55" s="9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D55" s="9" t="inlineStr">
+        <is>
+          <t>12.5</t>
+        </is>
+      </c>
+      <c r="E55" s="9" t="inlineStr"/>
+      <c r="F55" s="9" t="inlineStr">
+        <is>
           <t>All other phases complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="inlineStr"/>
+      <c r="B56" s="9" t="inlineStr"/>
+      <c r="C56" s="9" t="inlineStr"/>
+      <c r="D56" s="9" t="inlineStr"/>
+      <c r="E56" s="25" t="inlineStr">
+        <is>
+          <t>7.1- Optimize AWS resources (EC2, EBS, RDS) (17.5 days)</t>
+        </is>
+      </c>
+      <c r="F56" s="9" t="inlineStr">
+        <is>
+          <t>All phases complete</t>
         </is>
       </c>
     </row>
